--- a/Priming/Jianti1.xlsx
+++ b/Priming/Jianti1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Desktop/CBSLDT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs592/Priming/psychopy/Jianti1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CAA6C-0DA6-FA4D-9D6F-837B540C83B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F49175-F5E2-944A-AC49-60ED0B61B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{23BFEEAD-3FD8-204C-BA34-CD36C4A1FFC3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>prime</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>condition</t>
-  </si>
-  <si>
-    <t>wrd</t>
-  </si>
-  <si>
-    <t>non</t>
   </si>
   <si>
     <t>顽皮</t>
@@ -371,6 +365,15 @@
   </si>
   <si>
     <t>性乃</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>nonword</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB150E-9F44-2447-B6C6-18CABAB240CD}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,618 +761,618 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
